--- a/CORE_SummaryTable.xlsx
+++ b/CORE_SummaryTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t xml:space="preserve">Genus</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Site</t>
   </si>
   <si>
-    <t xml:space="preserve">SC.Category</t>
+    <t xml:space="preserve">SC.Category.x</t>
   </si>
   <si>
     <t xml:space="preserve">Density</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">MID</t>
   </si>
   <si>
-    <t xml:space="preserve">261.03 ± 13.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78 ± 13.98</t>
+    <t xml:space="preserve">326.29 ± 15.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.98 ± 15.12</t>
   </si>
   <si>
     <t xml:space="preserve">RIC</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">0.41 ± 0.29</t>
   </si>
   <si>
-    <t xml:space="preserve">36.28 ± 3.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85 ± 3.54</t>
+    <t xml:space="preserve">45.34 ± 3.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32 ± 3.91</t>
   </si>
   <si>
     <t xml:space="preserve">18.66 ± 0.49</t>
@@ -107,52 +107,52 @@
     <t xml:space="preserve">Acroneuria</t>
   </si>
   <si>
-    <t xml:space="preserve">43.79 ± 3.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08 ± 3.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.95 ± 13.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.12 ± 13.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.36 ± 39.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.56 ± 39.35</t>
+    <t xml:space="preserve">43.79 ± 0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51 ± 0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.95 ± 1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61 ± 1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.36 ± 3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66 ± 3.93</t>
   </si>
   <si>
     <t xml:space="preserve">Allognasta</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38 ± 0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 ± 0.04</t>
+    <t xml:space="preserve">10.76 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 ± NA</t>
   </si>
   <si>
     <t xml:space="preserve">Alloperla</t>
   </si>
   <si>
-    <t xml:space="preserve">16.72 ± 0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 ± 0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.33 ± 0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9 ± 0.69</t>
+    <t xml:space="preserve">16.72 ± 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 ± 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78 ± 0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 ± 0.07</t>
   </si>
   <si>
     <t xml:space="preserve">23.68 ± NA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.01 ± NA</t>
+    <t xml:space="preserve">0 ± NA</t>
   </si>
   <si>
     <t xml:space="preserve">Ameletus</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">43.57 ± 17.01</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87 ± 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.15 ± 23.54</t>
+    <t xml:space="preserve">14.8 ± 28.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.22 ± 28.42</t>
   </si>
   <si>
     <t xml:space="preserve">Amphinemura</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">0.49 ± 0.35</t>
   </si>
   <si>
-    <t xml:space="preserve">170.08 ± 5.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01 ± 5.76</t>
+    <t xml:space="preserve">198.42 ± 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67 ± 6</t>
   </si>
   <si>
     <t xml:space="preserve">183.35 ± 3.54</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">0.14 ± 0.01</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97 ± 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 ± 0.16</t>
+    <t xml:space="preserve">13.46 ± 0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 ± 0.14</t>
   </si>
   <si>
     <t xml:space="preserve">13.07 ± 0.4</t>
@@ -218,927 +218,876 @@
     <t xml:space="preserve">21.53 ± NA</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43 ± 0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.22 ± 1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 ± 1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attenella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.34 ± 5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98 ± 5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.52 ± 4.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31 ± 4.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baetidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.22 ± 0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 ± 0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199.14 ± 7.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4 ± 7.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baetis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.52 ± 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45 ± 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.29 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.91 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.56 ± 49.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2 ± 49.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calopteryx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.65 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cernotina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4 ± 0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71 ± 0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.27 ± 0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74 ± 0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.91 ± 0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 ± 0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauloides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.59 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.43 ± 0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4 ± 0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.55 ± 0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47 ± 0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.98 ± 1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 ± 1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheumatopsyche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.43 ± 0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96 ± 0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.25 ± 3.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65 ± 3.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.37 ± 12.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.44 ± 12.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chironomini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15 ± 0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 ± 0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.82 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collembola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6 ± 0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 ± 0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.29 ± 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 ± 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.99 ± 0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 ± 0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyrnellus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.29 ± 1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14 ± 1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15 ± 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08 ± 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.47 ± 1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19 ± 1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicranota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.53 ± 0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 ± 0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2 ± 0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 ± 0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.34 ± 0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 ± 0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplectrona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.58 ± 6.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7 ± 6.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.76 ± 20.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.25 ± 20.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.04 ± 2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23 ± 2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 ± 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dixella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 ± 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolophilodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.63 ± 0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 ± 0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.38 ± 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38 ± 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.94 ± 5.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51 ± 5.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ectopria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 ± 1.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82 ± 1.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.61 ± 1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69 ± 1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.21 ± 1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08 ± 1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epeorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.82 ± 11.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87 ± 11.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.94 ± 7.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32 ± 7.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephemera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.19 ± 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46 ± 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.11 ± 1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53 ± 1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephemerellidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriopterini</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.97 ± NA</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18 ± 4.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89 ± 4.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.22 ± 16.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.97 ± 16.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attenella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.34 ± 5.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98 ± 5.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.58 ± 4.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02 ± 4.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baetidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.22 ± 0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26 ± 0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.76 ± 6.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94 ± 6.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baetis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.52 ± 0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45 ± 0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15 ± 1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19 ± 1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.91 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.56 ± 49.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2 ± 49.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calopteryx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.65 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cernotina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4 ± 0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 ± 0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.51 ± 0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 ± 0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.91 ± 0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 ± 0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauloides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.59 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chelifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.43 ± 0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4 ± 0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.48 ± 0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 ± 0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.98 ± 1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 ± 1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheumatopsyche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.43 ± 0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96 ± 0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.25 ± 3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65 ± 3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.37 ± 12.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.44 ± 12.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimarra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chironomini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15 ± 0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42 ± 0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07 ± 0.02</t>
+    <t xml:space="preserve">Eurylophella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.11 ± 2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25 ± 2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.67 ± 3.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 ± 3.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 ± 0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossosoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.35 ± 1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94 ± 1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.25 ± 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63 ± 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.25 ± 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03 ± 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 22.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.43 ± 22.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.27 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomphurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomphus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemiptera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hetaerina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexatoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.51 ± 26.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.17 ± 26.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5 ± 12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.14 ± 12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydatophylax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.35 ± 3.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84 ± 3.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.83 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydropsyche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.89 ± 1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95 ± 1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.46 ± 6.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82 ± 6.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.67 ± 12.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.18 ± 12.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoperla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.54 ± 0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 ± 0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.54 ± 2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76 ± 2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.44 ± 0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 ± 0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanthus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.35 ± 14.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.23 ± 14.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lepidostoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15 ± 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95 ± 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.56 ± 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 ± 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 ± 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leuctra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.18 ± 1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24 ± 1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443.4 ± 7.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52 ± 7.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">849.48 ± 15.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.17 ± 15.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limnephilidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limnophila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 ± 0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 ± 0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.22 ± 1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88 ± 1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limoniidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.53 ± 0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75 ± 0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micrasema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 1.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49 ± 1.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microvelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.12 ± 0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 ± 0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.02 ± 0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 ± 0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.39 ± 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 ± 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62 ± 0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2 ± 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neocleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 ± 0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neophylax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.25 ± 3.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22 ± 3.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.74 ± 11.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65 ± 11.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neoplasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigronia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.46 ± 4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27 ± 4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.99 ± 20.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08 ± 20.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.76 ± 38.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.24 ± 38.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligochaeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.06 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optioservus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.98 ± 2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 ± 2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.66 ± 1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75 ± 1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.82 ± 1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43 ± 1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oreogeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.85 ± 0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 ± 0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthocladine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.86 ± 0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51 ± 0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195.48 ± 2.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41 ± 2.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227.71 ± 0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89 ± 0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oulimnius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.19 ± 0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25 ± 0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.67 ± 1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44 ± 1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.65 ± 2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67 ± 2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracapnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.66 ± 0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88 ± 0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.03 ± 0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67 ± 0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.25 ± 1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71 ± 1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraleptophlebia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.14 ± 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 ± 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 ± 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polycentropodidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15 ± 0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 ± 0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polycentropus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41 ± NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probezzia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.85 ± 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 ± 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.84 ± 0.02</t>
   </si>
   <si>
     <t xml:space="preserve">0.03 ± 0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">53.82 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collembola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6 ± 0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 ± 0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.83 ± 0.03</t>
+    <t xml:space="preserve">12.92 ± 0.03</t>
   </si>
   <si>
     <t xml:space="preserve">0.03 ± 0.03</t>
   </si>
   <si>
-    <t xml:space="preserve">13.99 ± 0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 ± 0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyrnellus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.29 ± 1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14 ± 1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.84 ± 0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93 ± 0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.47 ± 1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19 ± 1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dicranota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.53 ± 0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 ± 0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.17 ± 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 ± 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.34 ± 0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 ± 0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diplectrona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.58 ± 6.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7 ± 6.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.27 ± 20.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.25 ± 20.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.04 ± 2.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23 ± 2.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dixa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 ± 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42 ± 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dixella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 ± 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolophilodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.63 ± 0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 ± 0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15 ± 1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15 ± 1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.94 ± 5.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51 ± 5.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectopria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 ± 1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82 ± 1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.28 ± 1.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65 ± 1.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.21 ± 1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08 ± 1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epeorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.82 ± 11.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87 ± 11.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.95 ± 6.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77 ± 6.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ephemera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.19 ± 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46 ± 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.11 ± 1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53 ± 1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ephemerellidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.29 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriopterini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38 ± 0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48 ± 0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eurylophella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.11 ± 2.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25 ± 2.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.08 ± 3.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19 ± 3.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 ± 0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossosoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.35 ± 1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94 ± 1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.25 ± 0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63 ± 0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.25 ± 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03 ± 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 22.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.43 ± 22.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38 ± 35.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.13 ± 35.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomphurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomphus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemiptera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hetaerina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexatoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.51 ± 26.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.17 ± 26.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5 ± 12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.14 ± 12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydatophylax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.35 ± 3.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84 ± 3.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38 ± 37.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.41 ± 37.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydropsyche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.89 ± 1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95 ± 1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.16 ± 6.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61 ± 6.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.67 ± 12.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.18 ± 12.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoperla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.54 ± 0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42 ± 0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03 ± 2.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57 ± 2.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.44 ± 0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45 ± 0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanthus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.35 ± 14.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.23 ± 14.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lepidostoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15 ± 0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95 ± 0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 ± 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 ± 0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leuctra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.18 ± 1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24 ± 1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">474.26 ± 7.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52 ± 7.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">849.48 ± 15.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.17 ± 15.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limnephilidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38 ± 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 ± 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limnophila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 ± 0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18 ± 0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 ± 0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.22 ± 1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88 ± 1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limoniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.53 ± 0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75 ± 0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micrasema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 1.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49 ± 1.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microvelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.12 ± 0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 ± 0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.94 ± 0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 ± 0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.39 ± 0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 ± 0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molophilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62 ± 0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2 ± 0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neocleon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 ± 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neophylax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.25 ± 3.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22 ± 3.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.62 ± 10.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37 ± 10.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neoplasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigronia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.46 ± 4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27 ± 4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.49 ± 19.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4 ± 19.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.76 ± 38.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.24 ± 38.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oligochaeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.06 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optioservus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.98 ± 2.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 ± 2.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.42 ± 1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75 ± 1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.82 ± 1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43 ± 1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oreogeton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38 ± 0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 ± 0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.85 ± 0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 ± 0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthocladine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.86 ± 0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 ± 0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.19 ± 2.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39 ± 2.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227.71 ± 0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89 ± 0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oulimnius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.19 ± 0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25 ± 0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.13 ± 1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42 ± 1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.65 ± 2.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67 ± 2.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracapnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.66 ± 0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88 ± 0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.37 ± 0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67 ± 0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.25 ± 1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 ± 1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraleptophlebia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.74 ± 1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97 ± 1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97 ± 0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 ± 0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraleptophlebiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7 ± 1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71 ± 1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polycentropodidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.46 ± 0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2 ± 0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polycentropus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41 ± NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probezzia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.85 ± 0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74 ± 0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3 ± 0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 ± 0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.92 ± 0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 ± 0.33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prodaticus</t>
   </si>
   <si>
@@ -1151,10 +1100,10 @@
     <t xml:space="preserve">0.54 ± 0.62</t>
   </si>
   <si>
-    <t xml:space="preserve">23.32 ± 0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 ± 0.47</t>
+    <t xml:space="preserve">29.15 ± 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 ± 0.5</t>
   </si>
   <si>
     <t xml:space="preserve">66.52 ± 0.23</t>
@@ -1172,10 +1121,10 @@
     <t xml:space="preserve">0.19 ± 0.13</t>
   </si>
   <si>
-    <t xml:space="preserve">77.32 ± 2.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35 ± 2.73</t>
+    <t xml:space="preserve">92.79 ± 2.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82 ± 2.76</t>
   </si>
   <si>
     <t xml:space="preserve">38.21 ± 0.84</t>
@@ -1193,7 +1142,7 @@
     <t xml:space="preserve">0.54 ± 0.89</t>
   </si>
   <si>
-    <t xml:space="preserve">41.35 ± 1.52</t>
+    <t xml:space="preserve">41.17 ± 1.52</t>
   </si>
   <si>
     <t xml:space="preserve">1.59 ± 1.52</t>
@@ -1211,10 +1160,10 @@
     <t xml:space="preserve">1052.3 ± NA</t>
   </si>
   <si>
-    <t xml:space="preserve">15.38 ± 981.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1252.13 ± 981.83</t>
+    <t xml:space="preserve">17.94 ± 889.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1460.82 ± 889.36</t>
   </si>
   <si>
     <t xml:space="preserve">Pycnopsyche</t>
@@ -1226,10 +1175,10 @@
     <t xml:space="preserve">16.59 ± 22.95</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18 ± 1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65 ± 1.03</t>
+    <t xml:space="preserve">10.76 ± 1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97 ± 1.22</t>
   </si>
   <si>
     <t xml:space="preserve">Rhagovelia</t>
@@ -1241,10 +1190,10 @@
     <t xml:space="preserve">0.66 ± 0.53</t>
   </si>
   <si>
-    <t xml:space="preserve">15.25 ± 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48 ± 0.34</t>
+    <t xml:space="preserve">19.73 ± 0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64 ± 0.68</t>
   </si>
   <si>
     <t xml:space="preserve">23.68 ± 0.5</t>
@@ -1262,10 +1211,10 @@
     <t xml:space="preserve">2.2 ± 2.31</t>
   </si>
   <si>
-    <t xml:space="preserve">35.46 ± 2.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81 ± 2.85</t>
+    <t xml:space="preserve">36.48 ± 2.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84 ± 2.84</t>
   </si>
   <si>
     <t xml:space="preserve">40.96 ± 2.93</t>
@@ -1280,10 +1229,7 @@
     <t xml:space="preserve">0.15 ± NA</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38 ± 1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98 ± 1.39</t>
+    <t xml:space="preserve">1.96 ± NA</t>
   </si>
   <si>
     <t xml:space="preserve">13.46 ± 0.28</t>
@@ -1301,10 +1247,10 @@
     <t xml:space="preserve">0.91 ± 0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">17.49 ± 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83 ± 1</t>
+    <t xml:space="preserve">18.84 ± 0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84 ± 0.99</t>
   </si>
   <si>
     <t xml:space="preserve">31.84 ± 0.46</t>
@@ -1313,12 +1259,6 @@
     <t xml:space="preserve">0.61 ± 0.46</t>
   </si>
   <si>
-    <t xml:space="preserve">Stagnicola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79 ± NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stenelmis</t>
   </si>
   <si>
@@ -1328,10 +1268,10 @@
     <t xml:space="preserve">2.54 ± 1.44</t>
   </si>
   <si>
-    <t xml:space="preserve">19.02 ± 18.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4 ± 18.18</t>
+    <t xml:space="preserve">23.77 ± 18.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 ± 18.82</t>
   </si>
   <si>
     <t xml:space="preserve">22.6 ± 5.67</t>
@@ -1349,10 +1289,10 @@
     <t xml:space="preserve">3.15 ± 3.15</t>
   </si>
   <si>
-    <t xml:space="preserve">20.63 ± 1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54 ± 1.82</t>
+    <t xml:space="preserve">21.53 ± 2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84 ± 2.41</t>
   </si>
   <si>
     <t xml:space="preserve">0.08 ± NA</t>
@@ -1367,10 +1307,10 @@
     <t xml:space="preserve">4.44 ± 7.9</t>
   </si>
   <si>
-    <t xml:space="preserve">12.69 ± 4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21 ± 4.75</t>
+    <t xml:space="preserve">14.99 ± 4.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23 ± 4.74</t>
   </si>
   <si>
     <t xml:space="preserve">18.59 ± 14.16</t>
@@ -1409,10 +1349,10 @@
     <t xml:space="preserve">1.61 ± 0.77</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18 ± 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 ± 0.25</t>
+    <t xml:space="preserve">10.76 ± 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 ± 0.3</t>
   </si>
   <si>
     <t xml:space="preserve">0.14 ± NA</t>
@@ -1424,10 +1364,7 @@
     <t xml:space="preserve">32.35 ± 0.01</t>
   </si>
   <si>
-    <t xml:space="preserve">0.01 ± 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.85 ± 0.08</t>
+    <t xml:space="preserve">30.87 ± 0.08</t>
   </si>
   <si>
     <t xml:space="preserve">0.04 ± 0.08</t>
@@ -1445,7 +1382,7 @@
     <t xml:space="preserve">0.11 ± 0.14</t>
   </si>
   <si>
-    <t xml:space="preserve">16.15 ± 0.01</t>
+    <t xml:space="preserve">18.3 ± 0.01</t>
   </si>
   <si>
     <t xml:space="preserve">0.02 ± 0.01</t>
@@ -1859,19 +1796,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>39.15</v>
+        <v>846.86</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>19.58</v>
+        <v>423.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -1891,19 +1828,19 @@
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>345.71</v>
+        <v>46243.24</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>172.86</v>
+        <v>23121.62</v>
       </c>
       <c r="I3" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -1923,19 +1860,19 @@
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>51.36</v>
+        <v>716.92</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>25.68</v>
+        <v>358.46</v>
       </c>
       <c r="I4" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="J4" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -1955,19 +1892,19 @@
         <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>51.71</v>
+        <v>769.72</v>
       </c>
       <c r="G5" t="n">
         <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>30.16</v>
+        <v>449</v>
       </c>
       <c r="I5" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="J5" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1987,19 +1924,19 @@
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>72.47</v>
+        <v>1297.45</v>
       </c>
       <c r="G6" t="n">
         <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>54.35</v>
+        <v>973.08</v>
       </c>
       <c r="I6" t="n">
-        <v>2.89</v>
+        <v>1.93</v>
       </c>
       <c r="J6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -2019,16 +1956,16 @@
         <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>29.4</v>
+        <v>332.99</v>
       </c>
       <c r="G7" t="n">
         <v>1.71</v>
       </c>
       <c r="H7" t="n">
-        <v>17.15</v>
+        <v>194.24</v>
       </c>
       <c r="I7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J7" t="n">
         <v>0.19</v>
@@ -2051,16 +1988,16 @@
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>1814.56</v>
+        <v>2200.4</v>
       </c>
       <c r="G8" t="n">
         <v>0.71</v>
       </c>
       <c r="H8" t="n">
-        <v>2570.63</v>
+        <v>3117.23</v>
       </c>
       <c r="I8" t="n">
-        <v>6.92</v>
+        <v>7.16</v>
       </c>
       <c r="J8" t="n">
         <v>0.05</v>
@@ -2083,16 +2020,16 @@
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>11993.27</v>
+        <v>15920.23</v>
       </c>
       <c r="G9" t="n">
         <v>0.52</v>
       </c>
       <c r="H9" t="n">
-        <v>22987.11</v>
+        <v>30513.77</v>
       </c>
       <c r="I9" t="n">
-        <v>14.21</v>
+        <v>14.24</v>
       </c>
       <c r="J9" t="n">
         <v>0.04</v>
@@ -2115,16 +2052,16 @@
         <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>9044.57</v>
+        <v>11498.22</v>
       </c>
       <c r="G10" t="n">
         <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>18089.14</v>
+        <v>22996.44</v>
       </c>
       <c r="I10" t="n">
-        <v>12.89</v>
+        <v>12.49</v>
       </c>
       <c r="J10" t="n">
         <v>0.03</v>
@@ -2147,13 +2084,13 @@
         <v>39</v>
       </c>
       <c r="F11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.03</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.04</v>
@@ -2179,19 +2116,19 @@
         <v>42</v>
       </c>
       <c r="F12" t="n">
-        <v>87.41</v>
+        <v>96.67</v>
       </c>
       <c r="G12" t="n">
         <v>1.71</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99</v>
+        <v>56.39</v>
       </c>
       <c r="I12" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="J12" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -2211,19 +2148,19 @@
         <v>44</v>
       </c>
       <c r="F13" t="n">
-        <v>226.19</v>
+        <v>266.23</v>
       </c>
       <c r="G13" t="n">
         <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>188.5</v>
+        <v>221.86</v>
       </c>
       <c r="I13" t="n">
-        <v>2.91</v>
+        <v>2.81</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
@@ -2243,7 +2180,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
@@ -2275,19 +2212,19 @@
         <v>49</v>
       </c>
       <c r="F15" t="n">
-        <v>2410.94</v>
+        <v>26672.64</v>
       </c>
       <c r="G15" t="n">
         <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>1808.2</v>
+        <v>20004.48</v>
       </c>
       <c r="I15" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -2307,19 +2244,19 @@
         <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>227.18</v>
+        <v>2475.35</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>113.59</v>
+        <v>1237.67</v>
       </c>
       <c r="I16" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
@@ -2339,19 +2276,19 @@
         <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>30.25</v>
+        <v>471.22</v>
       </c>
       <c r="G17" t="n">
         <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>12.6</v>
+        <v>196.34</v>
       </c>
       <c r="I17" t="n">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="J17" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18">
@@ -2371,19 +2308,19 @@
         <v>56</v>
       </c>
       <c r="F18" t="n">
-        <v>292.22</v>
+        <v>15494.91</v>
       </c>
       <c r="G18" t="n">
         <v>1.71</v>
       </c>
       <c r="H18" t="n">
-        <v>170.46</v>
+        <v>9038.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="J18" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
@@ -2403,19 +2340,19 @@
         <v>58</v>
       </c>
       <c r="F19" t="n">
-        <v>476.04</v>
+        <v>37374.36</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>238.02</v>
+        <v>18687.18</v>
       </c>
       <c r="I19" t="n">
-        <v>2.16</v>
+        <v>1.61</v>
       </c>
       <c r="J19" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="20">
@@ -2435,13 +2372,13 @@
         <v>61</v>
       </c>
       <c r="F20" t="n">
-        <v>1.26</v>
+        <v>13.52</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.31</v>
+        <v>3.38</v>
       </c>
       <c r="I20" t="n">
         <v>0.31</v>
@@ -2467,13 +2404,13 @@
         <v>63</v>
       </c>
       <c r="F21" t="n">
-        <v>0.49</v>
+        <v>5.28</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.12</v>
+        <v>1.32</v>
       </c>
       <c r="I21" t="n">
         <v>0.26</v>
@@ -2499,13 +2436,13 @@
         <v>65</v>
       </c>
       <c r="F22" t="n">
-        <v>4.72</v>
+        <v>50.8</v>
       </c>
       <c r="G22" t="n">
         <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.97</v>
+        <v>21.17</v>
       </c>
       <c r="I22" t="n">
         <v>0.87</v>
@@ -2531,7 +2468,7 @@
         <v>68</v>
       </c>
       <c r="F23" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -2563,13 +2500,13 @@
         <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>16.88</v>
+        <v>18.17</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.22</v>
+        <v>4.54</v>
       </c>
       <c r="I24" t="n">
         <v>0.25</v>
@@ -2595,19 +2532,19 @@
         <v>72</v>
       </c>
       <c r="F25" t="n">
-        <v>2889.48</v>
+        <v>3361.79</v>
       </c>
       <c r="G25" t="n">
         <v>0.63</v>
       </c>
       <c r="H25" t="n">
-        <v>4575.01</v>
+        <v>5322.84</v>
       </c>
       <c r="I25" t="n">
-        <v>8.38</v>
+        <v>8.08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
@@ -2627,19 +2564,19 @@
         <v>75</v>
       </c>
       <c r="F26" t="n">
-        <v>332.28</v>
+        <v>5532.99</v>
       </c>
       <c r="G26" t="n">
         <v>1.2</v>
       </c>
       <c r="H26" t="n">
-        <v>276.9</v>
+        <v>4610.83</v>
       </c>
       <c r="I26" t="n">
-        <v>3.43</v>
+        <v>3.34</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27">
@@ -2659,19 +2596,19 @@
         <v>77</v>
       </c>
       <c r="F27" t="n">
-        <v>151.25</v>
+        <v>2363</v>
       </c>
       <c r="G27" t="n">
         <v>1.2</v>
       </c>
       <c r="H27" t="n">
-        <v>126.04</v>
+        <v>1969.16</v>
       </c>
       <c r="I27" t="n">
-        <v>3.34</v>
+        <v>2.92</v>
       </c>
       <c r="J27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="28">
@@ -2691,19 +2628,19 @@
         <v>80</v>
       </c>
       <c r="F28" t="n">
-        <v>4.78</v>
+        <v>65.63</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.2</v>
+        <v>16.41</v>
       </c>
       <c r="I28" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="J28" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="29">
@@ -2723,19 +2660,19 @@
         <v>82</v>
       </c>
       <c r="F29" t="n">
-        <v>60.04</v>
+        <v>2824.64</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>20.01</v>
+        <v>941.55</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2749,19 +2686,19 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
         <v>83</v>
       </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
       <c r="F30" t="n">
-        <v>0.58</v>
+        <v>6.22</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
         <v>0.15</v>
@@ -2772,7 +2709,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -2781,30 +2718,30 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" t="s">
-        <v>87</v>
-      </c>
       <c r="F31" t="n">
-        <v>97.99</v>
+        <v>1281.79</v>
       </c>
       <c r="G31" t="n">
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>65.33</v>
+        <v>854.53</v>
       </c>
       <c r="I31" t="n">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2813,22 +2750,22 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
         <v>88</v>
       </c>
-      <c r="E32" t="s">
-        <v>89</v>
-      </c>
       <c r="F32" t="n">
-        <v>12.35</v>
+        <v>214.17</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>4.12</v>
+        <v>71.39</v>
       </c>
       <c r="I32" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="J32" t="n">
         <v>0.11</v>
@@ -2836,7 +2773,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -2845,30 +2782,30 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>83.96</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.65</v>
+        <v>20.99</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="J33" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2877,22 +2814,22 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
       <c r="F34" t="n">
-        <v>3979.92</v>
+        <v>50922.78</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>3979.92</v>
+        <v>50922.78</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="J34" t="n">
         <v>0.01</v>
@@ -2900,7 +2837,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -2912,16 +2849,16 @@
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" t="n">
-        <v>11.83</v>
+        <v>254.61</v>
       </c>
       <c r="G35" t="n">
         <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>0.99</v>
+        <v>21.22</v>
       </c>
       <c r="I35" t="n">
         <v>0.04</v>
@@ -2932,7 +2869,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -2941,22 +2878,22 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="E36" t="s">
-        <v>99</v>
-      </c>
       <c r="F36" t="n">
-        <v>35.99</v>
+        <v>409.91</v>
       </c>
       <c r="G36" t="n">
         <v>1.71</v>
       </c>
       <c r="H36" t="n">
-        <v>20.99</v>
+        <v>239.12</v>
       </c>
       <c r="I36" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J36" t="n">
         <v>0.11</v>
@@ -2964,7 +2901,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2973,22 +2910,22 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
         <v>100</v>
       </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
       <c r="F37" t="n">
-        <v>93.56</v>
+        <v>1007.14</v>
       </c>
       <c r="G37" t="n">
         <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>62.38</v>
+        <v>671.43</v>
       </c>
       <c r="I37" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
         <v>0.1</v>
@@ -2996,7 +2933,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -3005,22 +2942,22 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
         <v>102</v>
       </c>
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
       <c r="F38" t="n">
-        <v>30.87</v>
+        <v>343.09</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>15.44</v>
+        <v>171.54</v>
       </c>
       <c r="I38" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="J38" t="n">
         <v>0.12</v>
@@ -3028,7 +2965,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -3037,19 +2974,19 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
         <v>105</v>
       </c>
-      <c r="E39" t="s">
-        <v>106</v>
-      </c>
       <c r="F39" t="n">
-        <v>1.41</v>
+        <v>45.66</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>0.24</v>
+        <v>7.61</v>
       </c>
       <c r="I39" t="n">
         <v>0.16</v>
@@ -3060,7 +2997,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -3069,22 +3006,22 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
         <v>108</v>
       </c>
-      <c r="E40" t="s">
-        <v>109</v>
-      </c>
       <c r="F40" t="n">
-        <v>8.98</v>
+        <v>108.09</v>
       </c>
       <c r="G40" t="n">
         <v>1.71</v>
       </c>
       <c r="H40" t="n">
-        <v>5.24</v>
+        <v>63.05</v>
       </c>
       <c r="I40" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="J40" t="n">
         <v>0.17</v>
@@ -3092,7 +3029,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -3101,30 +3038,30 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
         <v>110</v>
       </c>
-      <c r="E41" t="s">
-        <v>111</v>
-      </c>
       <c r="F41" t="n">
-        <v>49.76</v>
+        <v>993.32</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>24.88</v>
+        <v>496.66</v>
       </c>
       <c r="I41" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="J41" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -3133,30 +3070,30 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
         <v>112</v>
       </c>
-      <c r="E42" t="s">
-        <v>113</v>
-      </c>
       <c r="F42" t="n">
-        <v>282.87</v>
+        <v>14513.05</v>
       </c>
       <c r="G42" t="n">
         <v>1.71</v>
       </c>
       <c r="H42" t="n">
-        <v>165.01</v>
+        <v>8465.95</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>2.07</v>
       </c>
       <c r="J42" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3165,30 +3102,30 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
         <v>115</v>
       </c>
-      <c r="E43" t="s">
-        <v>116</v>
-      </c>
       <c r="F43" t="n">
-        <v>71.61</v>
+        <v>816.54</v>
       </c>
       <c r="G43" t="n">
         <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>47.74</v>
+        <v>544.36</v>
       </c>
       <c r="I43" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="J43" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3197,22 +3134,22 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" t="s">
         <v>117</v>
       </c>
-      <c r="E44" t="s">
-        <v>118</v>
-      </c>
       <c r="F44" t="n">
-        <v>1728.72</v>
+        <v>24941.3</v>
       </c>
       <c r="G44" t="n">
         <v>0.86</v>
       </c>
       <c r="H44" t="n">
-        <v>2016.84</v>
+        <v>29098.19</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>3.47</v>
       </c>
       <c r="J44" t="n">
         <v>0.04</v>
@@ -3220,7 +3157,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -3229,30 +3166,30 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
         <v>119</v>
       </c>
-      <c r="E45" t="s">
-        <v>120</v>
-      </c>
       <c r="F45" t="n">
-        <v>12880.62</v>
+        <v>312198.31</v>
       </c>
       <c r="G45" t="n">
         <v>0.75</v>
       </c>
       <c r="H45" t="n">
-        <v>17174.16</v>
+        <v>416264.41</v>
       </c>
       <c r="I45" t="n">
-        <v>6.73</v>
+        <v>6.05</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -3264,16 +3201,16 @@
         <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" t="n">
-        <v>3.2</v>
+        <v>68.94</v>
       </c>
       <c r="G46" t="n">
         <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>5.74</v>
       </c>
       <c r="I46" t="n">
         <v>0.04</v>
@@ -3284,7 +3221,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -3293,22 +3230,22 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
         <v>124</v>
       </c>
-      <c r="E47" t="s">
-        <v>125</v>
-      </c>
       <c r="F47" t="n">
-        <v>6.01</v>
+        <v>69.92</v>
       </c>
       <c r="G47" t="n">
         <v>1.71</v>
       </c>
       <c r="H47" t="n">
-        <v>3.51</v>
+        <v>40.79</v>
       </c>
       <c r="I47" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="J47" t="n">
         <v>0.21</v>
@@ -3316,7 +3253,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3325,19 +3262,19 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08</v>
+        <v>0.87</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I48" t="n">
         <v>0.14</v>
@@ -3348,7 +3285,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -3357,19 +3294,19 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
       <c r="G49" t="n">
         <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I49" t="n">
         <v>0.04</v>
@@ -3380,7 +3317,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3389,30 +3326,30 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F50" t="n">
-        <v>9.12</v>
+        <v>136.56</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.04</v>
+        <v>45.52</v>
       </c>
       <c r="I50" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="J50" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -3421,30 +3358,30 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F51" t="n">
-        <v>0.86</v>
+        <v>17.16</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>0.14</v>
+        <v>2.86</v>
       </c>
       <c r="I51" t="n">
         <v>0.24</v>
       </c>
       <c r="J51" t="n">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -3453,30 +3390,30 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" t="n">
-        <v>0.95</v>
+        <v>10.37</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>0.24</v>
+        <v>2.59</v>
       </c>
       <c r="I52" t="n">
         <v>0.4</v>
       </c>
       <c r="J52" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -3485,30 +3422,30 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F53" t="n">
-        <v>101</v>
+        <v>1228.3</v>
       </c>
       <c r="G53" t="n">
         <v>1.5</v>
       </c>
       <c r="H53" t="n">
-        <v>67.33</v>
+        <v>818.87</v>
       </c>
       <c r="I53" t="n">
-        <v>2.59</v>
+        <v>2.41</v>
       </c>
       <c r="J53" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -3517,22 +3454,22 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F54" t="n">
-        <v>50.65</v>
+        <v>691.8</v>
       </c>
       <c r="G54" t="n">
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>33.77</v>
+        <v>461.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="J54" t="n">
         <v>0.09</v>
@@ -3540,7 +3477,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -3549,22 +3486,22 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F55" t="n">
-        <v>45.63</v>
+        <v>527.05</v>
       </c>
       <c r="G55" t="n">
         <v>1.5</v>
       </c>
       <c r="H55" t="n">
-        <v>30.42</v>
+        <v>351.37</v>
       </c>
       <c r="I55" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="J55" t="n">
         <v>0.05</v>
@@ -3572,7 +3509,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -3581,22 +3518,22 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F56" t="n">
-        <v>56.3</v>
+        <v>802.76</v>
       </c>
       <c r="G56" t="n">
         <v>1.5</v>
       </c>
       <c r="H56" t="n">
-        <v>37.54</v>
+        <v>535.18</v>
       </c>
       <c r="I56" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="J56" t="n">
         <v>0.05</v>
@@ -3604,7 +3541,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -3613,22 +3550,22 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F57" t="n">
-        <v>4.52</v>
+        <v>52.33</v>
       </c>
       <c r="G57" t="n">
         <v>1.71</v>
       </c>
       <c r="H57" t="n">
-        <v>2.64</v>
+        <v>30.53</v>
       </c>
       <c r="I57" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0.15</v>
@@ -3636,7 +3573,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -3645,30 +3582,30 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F58" t="n">
-        <v>4.7</v>
+        <v>53.71</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>2.35</v>
+        <v>26.86</v>
       </c>
       <c r="I58" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="J58" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -3677,22 +3614,22 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F59" t="n">
-        <v>2718.94</v>
+        <v>44166.86</v>
       </c>
       <c r="G59" t="n">
         <v>0.67</v>
       </c>
       <c r="H59" t="n">
-        <v>4078.41</v>
+        <v>66250.28</v>
       </c>
       <c r="I59" t="n">
-        <v>8.4</v>
+        <v>7.99</v>
       </c>
       <c r="J59" t="n">
         <v>0.04</v>
@@ -3700,7 +3637,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -3709,22 +3646,22 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F60" t="n">
-        <v>5563.24</v>
+        <v>137521.15</v>
       </c>
       <c r="G60" t="n">
         <v>0.63</v>
       </c>
       <c r="H60" t="n">
-        <v>8808.47</v>
+        <v>217741.82</v>
       </c>
       <c r="I60" t="n">
-        <v>8.38</v>
+        <v>7.83</v>
       </c>
       <c r="J60" t="n">
         <v>0.02</v>
@@ -3732,7 +3669,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -3741,30 +3678,30 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F61" t="n">
-        <v>3038.09</v>
+        <v>58650.24</v>
       </c>
       <c r="G61" t="n">
         <v>0.8</v>
       </c>
       <c r="H61" t="n">
-        <v>3797.62</v>
+        <v>73312.8</v>
       </c>
       <c r="I61" t="n">
-        <v>6.85</v>
+        <v>6.08</v>
       </c>
       <c r="J61" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -3773,19 +3710,19 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="G62" t="n">
         <v>2.4</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I62" t="n">
         <v>0.21</v>
@@ -3796,7 +3733,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -3805,19 +3742,19 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="I63" t="n">
         <v>0.25</v>
@@ -3828,7 +3765,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -3837,19 +3774,19 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="I64" t="n">
         <v>0.15</v>
@@ -3860,7 +3797,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -3869,19 +3806,19 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="G65" t="n">
         <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
         <v>0.04</v>
@@ -3892,7 +3829,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -3901,30 +3838,30 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F66" t="n">
-        <v>4.16</v>
+        <v>53.74</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>1.04</v>
+        <v>13.43</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="J66" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -3933,19 +3870,19 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F67" t="n">
-        <v>26.65</v>
+        <v>331.84</v>
       </c>
       <c r="G67" t="n">
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>17.76</v>
+        <v>221.23</v>
       </c>
       <c r="I67" t="n">
         <v>1.67</v>
@@ -3956,7 +3893,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -3965,30 +3902,30 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F68" t="n">
-        <v>43.95</v>
+        <v>496.41</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>21.97</v>
+        <v>248.2</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -3997,30 +3934,30 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F69" t="n">
-        <v>284.27</v>
+        <v>3620.79</v>
       </c>
       <c r="G69" t="n">
         <v>1.71</v>
       </c>
       <c r="H69" t="n">
-        <v>165.83</v>
+        <v>2112.12</v>
       </c>
       <c r="I69" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="J69" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -4029,22 +3966,22 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F70" t="n">
-        <v>173.23</v>
+        <v>1909.69</v>
       </c>
       <c r="G70" t="n">
         <v>1.71</v>
       </c>
       <c r="H70" t="n">
-        <v>101.05</v>
+        <v>1113.99</v>
       </c>
       <c r="I70" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="J70" t="n">
         <v>0.19</v>
@@ -4052,7 +3989,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -4061,22 +3998,22 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F71" t="n">
-        <v>201.31</v>
+        <v>2278.88</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>100.65</v>
+        <v>1139.44</v>
       </c>
       <c r="I71" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="J71" t="n">
         <v>0.13</v>
@@ -4084,7 +4021,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -4093,30 +4030,30 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F72" t="n">
-        <v>1835.8</v>
+        <v>44797.08</v>
       </c>
       <c r="G72" t="n">
         <v>0.92</v>
       </c>
       <c r="H72" t="n">
-        <v>1988.78</v>
+        <v>48530.17</v>
       </c>
       <c r="I72" t="n">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="J72" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -4125,22 +4062,22 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F73" t="n">
-        <v>140.56</v>
+        <v>1558.88</v>
       </c>
       <c r="G73" t="n">
         <v>1.33</v>
       </c>
       <c r="H73" t="n">
-        <v>105.42</v>
+        <v>1169.16</v>
       </c>
       <c r="I73" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="J73" t="n">
         <v>0.11</v>
@@ -4148,7 +4085,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -4157,19 +4094,19 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F74" t="n">
-        <v>0.11</v>
+        <v>1.22</v>
       </c>
       <c r="G74" t="n">
         <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I74" t="n">
         <v>0.04</v>
@@ -4180,7 +4117,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -4189,30 +4126,30 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F75" t="n">
-        <v>27.5</v>
+        <v>319.6</v>
       </c>
       <c r="G75" t="n">
         <v>1.71</v>
       </c>
       <c r="H75" t="n">
-        <v>16.04</v>
+        <v>186.43</v>
       </c>
       <c r="I75" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J75" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -4221,19 +4158,19 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F76" t="n">
-        <v>20.85</v>
+        <v>224.43</v>
       </c>
       <c r="G76" t="n">
         <v>2.4</v>
       </c>
       <c r="H76" t="n">
-        <v>8.69</v>
+        <v>93.51</v>
       </c>
       <c r="I76" t="n">
         <v>0.74</v>
@@ -4244,7 +4181,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -4253,19 +4190,19 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F77" t="n">
-        <v>5.79</v>
+        <v>62.31</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>1.45</v>
+        <v>15.58</v>
       </c>
       <c r="I77" t="n">
         <v>0.18</v>
@@ -4276,7 +4213,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -4285,19 +4222,19 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F78" t="n">
-        <v>0.48</v>
+        <v>5.2</v>
       </c>
       <c r="G78" t="n">
         <v>12</v>
       </c>
       <c r="H78" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="I78" t="n">
         <v>0.04</v>
@@ -4308,7 +4245,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -4317,30 +4254,30 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F79" t="n">
-        <v>221.97</v>
+        <v>3894.63</v>
       </c>
       <c r="G79" t="n">
         <v>1.5</v>
       </c>
       <c r="H79" t="n">
-        <v>147.98</v>
+        <v>2596.42</v>
       </c>
       <c r="I79" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="J79" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -4349,22 +4286,22 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F80" t="n">
-        <v>206.09</v>
+        <v>4218.46</v>
       </c>
       <c r="G80" t="n">
         <v>1.5</v>
       </c>
       <c r="H80" t="n">
-        <v>137.39</v>
+        <v>2812.31</v>
       </c>
       <c r="I80" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="J80" t="n">
         <v>0.12</v>
@@ -4372,7 +4309,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -4381,19 +4318,19 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F81" t="n">
-        <v>0.32</v>
+        <v>3.45</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.58</v>
       </c>
       <c r="I81" t="n">
         <v>0.11</v>
@@ -4404,7 +4341,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -4416,16 +4353,16 @@
         <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F82" t="n">
-        <v>3.32</v>
+        <v>35.69</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>0.55</v>
+        <v>5.95</v>
       </c>
       <c r="I82" t="n">
         <v>0.1</v>
@@ -4436,7 +4373,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -4445,30 +4382,30 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F83" t="n">
-        <v>7.96</v>
+        <v>87.18</v>
       </c>
       <c r="G83" t="n">
         <v>2.4</v>
       </c>
       <c r="H83" t="n">
-        <v>3.32</v>
+        <v>36.32</v>
       </c>
       <c r="I83" t="n">
         <v>0.82</v>
       </c>
       <c r="J83" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -4477,22 +4414,22 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F84" t="n">
-        <v>13.93</v>
+        <v>162.83</v>
       </c>
       <c r="G84" t="n">
         <v>2.4</v>
       </c>
       <c r="H84" t="n">
-        <v>5.8</v>
+        <v>67.84</v>
       </c>
       <c r="I84" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J84" t="n">
         <v>0.16</v>
@@ -4500,7 +4437,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
@@ -4509,22 +4446,22 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F85" t="n">
-        <v>18.62</v>
+        <v>200.4</v>
       </c>
       <c r="G85" t="n">
         <v>2.4</v>
       </c>
       <c r="H85" t="n">
-        <v>7.76</v>
+        <v>83.5</v>
       </c>
       <c r="I85" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J85" t="n">
         <v>0.37</v>
@@ -4532,7 +4469,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -4541,19 +4478,19 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F86" t="n">
-        <v>59.45</v>
+        <v>639.92</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>9.91</v>
+        <v>106.65</v>
       </c>
       <c r="I86" t="n">
         <v>0.11</v>
@@ -4564,7 +4501,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -4573,19 +4510,19 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F87" t="n">
-        <v>59.45</v>
+        <v>639.92</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>9.91</v>
+        <v>106.65</v>
       </c>
       <c r="I87" t="n">
         <v>0.1</v>
@@ -4596,7 +4533,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -4605,19 +4542,19 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F88" t="n">
-        <v>0.34</v>
+        <v>3.61</v>
       </c>
       <c r="G88" t="n">
         <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="I88" t="n">
         <v>0.04</v>
@@ -4628,7 +4565,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -4637,19 +4574,19 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F89" t="n">
-        <v>0.96</v>
+        <v>10.34</v>
       </c>
       <c r="G89" t="n">
         <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>0.08</v>
+        <v>0.86</v>
       </c>
       <c r="I89" t="n">
         <v>0.04</v>
@@ -4660,7 +4597,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -4669,19 +4606,19 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F90" t="n">
-        <v>0.12</v>
+        <v>1.32</v>
       </c>
       <c r="G90" t="n">
         <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="I90" t="n">
         <v>0.04</v>
@@ -4692,7 +4629,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -4701,19 +4638,19 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="F91" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G91" t="n">
+        <v>12</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.05</v>
-      </c>
-      <c r="G91" t="n">
-        <v>12</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0.04</v>
@@ -4724,7 +4661,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -4733,22 +4670,22 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F92" t="n">
-        <v>2088.86</v>
+        <v>22758.46</v>
       </c>
       <c r="G92" t="n">
         <v>0.55</v>
       </c>
       <c r="H92" t="n">
-        <v>3829.57</v>
+        <v>41723.85</v>
       </c>
       <c r="I92" t="n">
-        <v>8.03</v>
+        <v>7.92</v>
       </c>
       <c r="J92" t="n">
         <v>0.02</v>
@@ -4756,7 +4693,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
@@ -4765,22 +4702,22 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E93" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F93" t="n">
-        <v>2290.86</v>
+        <v>25865.76</v>
       </c>
       <c r="G93" t="n">
         <v>0.67</v>
       </c>
       <c r="H93" t="n">
-        <v>3436.29</v>
+        <v>38798.64</v>
       </c>
       <c r="I93" t="n">
-        <v>8.19</v>
+        <v>8.31</v>
       </c>
       <c r="J93" t="n">
         <v>0.03</v>
@@ -4788,7 +4725,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -4797,22 +4734,22 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F94" t="n">
-        <v>18.86</v>
+        <v>259.01</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>4.71</v>
+        <v>64.75</v>
       </c>
       <c r="I94" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="J94" t="n">
         <v>0.21</v>
@@ -4820,7 +4757,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -4829,19 +4766,19 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F95" t="n">
-        <v>26.41</v>
+        <v>284.33</v>
       </c>
       <c r="G95" t="n">
         <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>2.2</v>
+        <v>23.69</v>
       </c>
       <c r="I95" t="n">
         <v>0.04</v>
@@ -4852,7 +4789,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
@@ -4861,19 +4798,19 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F96" t="n">
-        <v>1.73</v>
+        <v>18.67</v>
       </c>
       <c r="G96" t="n">
         <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>0.14</v>
+        <v>1.56</v>
       </c>
       <c r="I96" t="n">
         <v>0.04</v>
@@ -4884,7 +4821,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -4893,30 +4830,30 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E97" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F97" t="n">
-        <v>199.89</v>
+        <v>2496.88</v>
       </c>
       <c r="G97" t="n">
         <v>1.33</v>
       </c>
       <c r="H97" t="n">
-        <v>149.91</v>
+        <v>1872.66</v>
       </c>
       <c r="I97" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -4925,22 +4862,22 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E98" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F98" t="n">
-        <v>1873.45</v>
+        <v>24999.37</v>
       </c>
       <c r="G98" t="n">
         <v>0.8</v>
       </c>
       <c r="H98" t="n">
-        <v>2341.81</v>
+        <v>31249.22</v>
       </c>
       <c r="I98" t="n">
-        <v>6.09</v>
+        <v>5.78</v>
       </c>
       <c r="J98" t="n">
         <v>0.04</v>
@@ -4948,7 +4885,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
@@ -4957,22 +4894,22 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F99" t="n">
-        <v>8232.3</v>
+        <v>152507.62</v>
       </c>
       <c r="G99" t="n">
         <v>0.8</v>
       </c>
       <c r="H99" t="n">
-        <v>10290.37</v>
+        <v>190634.53</v>
       </c>
       <c r="I99" t="n">
-        <v>7.25</v>
+        <v>6.78</v>
       </c>
       <c r="J99" t="n">
         <v>0.02</v>
@@ -4980,7 +4917,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -4989,30 +4926,30 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E100" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F100" t="n">
-        <v>17.95</v>
+        <v>236.57</v>
       </c>
       <c r="G100" t="n">
         <v>2.4</v>
       </c>
       <c r="H100" t="n">
-        <v>7.48</v>
+        <v>98.57</v>
       </c>
       <c r="I100" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="J100" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5021,30 +4958,30 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F101" t="n">
-        <v>328.98</v>
+        <v>4559.72</v>
       </c>
       <c r="G101" t="n">
         <v>1.33</v>
       </c>
       <c r="H101" t="n">
-        <v>246.74</v>
+        <v>3419.79</v>
       </c>
       <c r="I101" t="n">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="J101" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B102" t="s">
         <v>19</v>
@@ -5053,22 +4990,22 @@
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E102" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F102" t="n">
-        <v>5.22</v>
+        <v>112</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>1.74</v>
+        <v>37.33</v>
       </c>
       <c r="I102" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="J102" t="n">
         <v>0.37</v>
@@ -5076,7 +5013,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s">
         <v>19</v>
@@ -5085,19 +5022,19 @@
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E103" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F103" t="n">
-        <v>97.68</v>
+        <v>1051.41</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>24.42</v>
+        <v>262.85</v>
       </c>
       <c r="I103" t="n">
         <v>0.31</v>
@@ -5108,7 +5045,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -5117,22 +5054,22 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E104" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F104" t="n">
-        <v>25.04</v>
+        <v>328.28</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>12.52</v>
+        <v>164.14</v>
       </c>
       <c r="I104" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="J104" t="n">
         <v>0.12</v>
@@ -5140,7 +5077,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -5149,30 +5086,30 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F105" t="n">
-        <v>0.77</v>
+        <v>8.47</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>1.41</v>
       </c>
       <c r="I105" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J105" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B106" t="s">
         <v>19</v>
@@ -5181,19 +5118,19 @@
         <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E106" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F106" t="n">
-        <v>0.58</v>
+        <v>6.25</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="I106" t="n">
         <v>0.15</v>
@@ -5204,7 +5141,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -5213,30 +5150,30 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E107" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F107" t="n">
-        <v>821.34</v>
+        <v>18150.24</v>
       </c>
       <c r="G107" t="n">
         <v>1.2</v>
       </c>
       <c r="H107" t="n">
-        <v>684.45</v>
+        <v>15125.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="J107" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -5245,30 +5182,30 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F108" t="n">
-        <v>3470.02</v>
+        <v>250170.62</v>
       </c>
       <c r="G108" t="n">
         <v>1.5</v>
       </c>
       <c r="H108" t="n">
-        <v>2313.35</v>
+        <v>166780.41</v>
       </c>
       <c r="I108" t="n">
-        <v>3.52</v>
+        <v>2.41</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B109" t="s">
         <v>19</v>
@@ -5277,30 +5214,30 @@
         <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E109" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F109" t="n">
-        <v>5615.21</v>
+        <v>758106.31</v>
       </c>
       <c r="G109" t="n">
         <v>1.5</v>
       </c>
       <c r="H109" t="n">
-        <v>3743.47</v>
+        <v>505404.21</v>
       </c>
       <c r="I109" t="n">
-        <v>2.67</v>
+        <v>2.05</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -5309,19 +5246,19 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F110" t="n">
-        <v>0.24</v>
+        <v>2.59</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
       </c>
       <c r="H110" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="I110" t="n">
         <v>0.04</v>
@@ -5332,7 +5269,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -5341,19 +5278,19 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F111" t="n">
-        <v>0.17</v>
+        <v>1.79</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="I111" t="n">
         <v>0.12</v>
@@ -5364,7 +5301,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -5373,19 +5310,19 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F112" t="n">
-        <v>0.98</v>
+        <v>10.5</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
       </c>
       <c r="H112" t="n">
-        <v>0.24</v>
+        <v>2.63</v>
       </c>
       <c r="I112" t="n">
         <v>0.2</v>
@@ -5396,7 +5333,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
@@ -5405,22 +5342,22 @@
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E113" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F113" t="n">
-        <v>9.34</v>
+        <v>122.04</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>4.67</v>
+        <v>61.02</v>
       </c>
       <c r="I113" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J113" t="n">
         <v>0.09</v>
@@ -5428,7 +5365,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -5437,19 +5374,19 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F114" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="G114" t="n">
         <v>12</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I114" t="n">
         <v>0.04</v>
@@ -5460,7 +5397,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
@@ -5469,30 +5406,30 @@
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F115" t="n">
-        <v>3.75</v>
+        <v>75.76</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
       </c>
       <c r="H115" t="n">
-        <v>0.94</v>
+        <v>18.94</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="J115" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -5501,19 +5438,19 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E116" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F116" t="n">
-        <v>2.72</v>
+        <v>29.25</v>
       </c>
       <c r="G116" t="n">
         <v>6</v>
       </c>
       <c r="H116" t="n">
-        <v>0.45</v>
+        <v>4.87</v>
       </c>
       <c r="I116" t="n">
         <v>0.15</v>
@@ -5524,7 +5461,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -5533,30 +5470,30 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7</v>
+        <v>30.21</v>
       </c>
       <c r="G117" t="n">
         <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>5.03</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -5565,30 +5502,30 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F118" t="n">
-        <v>5.3</v>
+        <v>113.44</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
       </c>
       <c r="H118" t="n">
-        <v>1.33</v>
+        <v>28.36</v>
       </c>
       <c r="I118" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="J118" t="n">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
@@ -5597,30 +5534,30 @@
         <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F119" t="n">
-        <v>7.12</v>
+        <v>126.72</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
       </c>
       <c r="H119" t="n">
-        <v>1.78</v>
+        <v>31.68</v>
       </c>
       <c r="I119" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="J119" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -5629,19 +5566,19 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F120" t="n">
-        <v>3.47</v>
+        <v>37.3</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
       </c>
       <c r="H120" t="n">
-        <v>1.16</v>
+        <v>12.43</v>
       </c>
       <c r="I120" t="n">
         <v>0.47</v>
@@ -5652,7 +5589,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -5661,30 +5598,30 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>294</v>
+        <v>87</v>
       </c>
       <c r="E121" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="F121" t="n">
-        <v>0.19</v>
+        <v>2.22</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>0.03</v>
+        <v>0.37</v>
       </c>
       <c r="I121" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="J121" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B122" t="s">
         <v>19</v>
@@ -5693,19 +5630,19 @@
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F122" t="n">
-        <v>0.94</v>
+        <v>10.13</v>
       </c>
       <c r="G122" t="n">
         <v>6</v>
       </c>
       <c r="H122" t="n">
-        <v>0.16</v>
+        <v>1.69</v>
       </c>
       <c r="I122" t="n">
         <v>0.16</v>
@@ -5716,7 +5653,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -5725,19 +5662,19 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F123" t="n">
-        <v>4.56</v>
+        <v>49.13</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
       </c>
       <c r="H123" t="n">
-        <v>1.14</v>
+        <v>12.28</v>
       </c>
       <c r="I123" t="n">
         <v>0.34</v>
@@ -5748,7 +5685,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -5757,22 +5694,22 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F124" t="n">
-        <v>280.9</v>
+        <v>4358.77</v>
       </c>
       <c r="G124" t="n">
         <v>1.2</v>
       </c>
       <c r="H124" t="n">
-        <v>234.08</v>
+        <v>3632.3</v>
       </c>
       <c r="I124" t="n">
-        <v>3.95</v>
+        <v>3.76</v>
       </c>
       <c r="J124" t="n">
         <v>0.13</v>
@@ -5780,7 +5717,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -5789,22 +5726,22 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E125" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F125" t="n">
-        <v>249.01</v>
+        <v>3440.81</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>249.01</v>
+        <v>3440.81</v>
       </c>
       <c r="I125" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J125" t="n">
         <v>0.05</v>
@@ -5812,7 +5749,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
@@ -5821,19 +5758,19 @@
         <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E126" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F126" t="n">
-        <v>0.13</v>
+        <v>1.37</v>
       </c>
       <c r="G126" t="n">
         <v>12</v>
       </c>
       <c r="H126" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="I126" t="n">
         <v>0.04</v>
@@ -5844,7 +5781,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -5853,30 +5790,30 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="E127" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F127" t="n">
-        <v>1.4</v>
+        <v>30.19</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>5.03</v>
       </c>
       <c r="I127" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
@@ -5885,19 +5822,19 @@
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F128" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.01</v>
-      </c>
-      <c r="G128" t="n">
-        <v>12</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0.04</v>
@@ -5908,7 +5845,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -5917,22 +5854,22 @@
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E129" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F129" t="n">
-        <v>23.74</v>
+        <v>267.93</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
       </c>
       <c r="H129" t="n">
-        <v>5.93</v>
+        <v>66.98</v>
       </c>
       <c r="I129" t="n">
-        <v>0.62</v>
+        <v>0.56</v>
       </c>
       <c r="J129" t="n">
         <v>0.11</v>
@@ -5940,7 +5877,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -5949,22 +5886,22 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E130" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F130" t="n">
-        <v>591.31</v>
+        <v>6910.24</v>
       </c>
       <c r="G130" t="n">
         <v>1.09</v>
       </c>
       <c r="H130" t="n">
-        <v>542.03</v>
+        <v>6334.39</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J130" t="n">
         <v>0.04</v>
@@ -5972,7 +5909,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
@@ -5981,19 +5918,19 @@
         <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E131" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F131" t="n">
-        <v>174.52</v>
+        <v>1878.58</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
       </c>
       <c r="H131" t="n">
-        <v>58.17</v>
+        <v>626.19</v>
       </c>
       <c r="I131" t="n">
         <v>0.66</v>
@@ -6004,7 +5941,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
@@ -6013,19 +5950,19 @@
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E132" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F132" t="n">
-        <v>1.33</v>
+        <v>14.27</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
       </c>
       <c r="H132" t="n">
-        <v>0.44</v>
+        <v>4.76</v>
       </c>
       <c r="I132" t="n">
         <v>0.22</v>
@@ -6036,7 +5973,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -6045,30 +5982,30 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E133" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F133" t="n">
-        <v>418.82</v>
+        <v>18948.49</v>
       </c>
       <c r="G133" t="n">
         <v>1.5</v>
       </c>
       <c r="H133" t="n">
-        <v>279.21</v>
+        <v>12632.33</v>
       </c>
       <c r="I133" t="n">
-        <v>3.27</v>
+        <v>2.64</v>
       </c>
       <c r="J133" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
@@ -6077,30 +6014,30 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E134" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F134" t="n">
-        <v>606.75</v>
+        <v>22239.34</v>
       </c>
       <c r="G134" t="n">
         <v>1.71</v>
       </c>
       <c r="H134" t="n">
-        <v>353.94</v>
+        <v>12972.95</v>
       </c>
       <c r="I134" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="J134" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
@@ -6109,22 +6046,22 @@
         <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E135" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F135" t="n">
-        <v>1709.47</v>
+        <v>63185.34</v>
       </c>
       <c r="G135" t="n">
         <v>1.71</v>
       </c>
       <c r="H135" t="n">
-        <v>997.19</v>
+        <v>36858.11</v>
       </c>
       <c r="I135" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="J135" t="n">
         <v>0.21</v>
@@ -6132,7 +6069,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -6141,19 +6078,19 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E136" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F136" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.02</v>
-      </c>
-      <c r="G136" t="n">
-        <v>12</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0.04</v>
@@ -6164,7 +6101,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
@@ -6173,19 +6110,19 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="E137" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="G137" t="n">
         <v>12</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I137" t="n">
         <v>0.04</v>
@@ -6196,7 +6133,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
@@ -6205,30 +6142,30 @@
         <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E138" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F138" t="n">
-        <v>29.24</v>
+        <v>1004.11</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>14.62</v>
+        <v>502.05</v>
       </c>
       <c r="I138" t="n">
-        <v>2.09</v>
+        <v>1.52</v>
       </c>
       <c r="J138" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -6237,30 +6174,30 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E139" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F139" t="n">
-        <v>444.85</v>
+        <v>11425.02</v>
       </c>
       <c r="G139" t="n">
         <v>1.2</v>
       </c>
       <c r="H139" t="n">
-        <v>370.71</v>
+        <v>9520.85</v>
       </c>
       <c r="I139" t="n">
-        <v>3.73</v>
+        <v>2.87</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
@@ -6269,22 +6206,22 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E140" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F140" t="n">
-        <v>691.67</v>
+        <v>24295.82</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>691.67</v>
+        <v>24295.82</v>
       </c>
       <c r="I140" t="n">
-        <v>4.31</v>
+        <v>3.73</v>
       </c>
       <c r="J140" t="n">
         <v>0.05</v>
@@ -6292,7 +6229,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
@@ -6301,30 +6238,30 @@
         <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E141" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F141" t="n">
-        <v>816.85</v>
+        <v>30566.37</v>
       </c>
       <c r="G141" t="n">
         <v>1.09</v>
       </c>
       <c r="H141" t="n">
-        <v>748.78</v>
+        <v>28019.17</v>
       </c>
       <c r="I141" t="n">
-        <v>5.04</v>
+        <v>4.17</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -6333,30 +6270,30 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E142" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F142" t="n">
-        <v>391.92</v>
+        <v>10464.68</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
       </c>
       <c r="H142" t="n">
-        <v>130.64</v>
+        <v>3488.23</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J142" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
@@ -6365,22 +6302,22 @@
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E143" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F143" t="n">
-        <v>824.61</v>
+        <v>19651.58</v>
       </c>
       <c r="G143" t="n">
         <v>1.71</v>
       </c>
       <c r="H143" t="n">
-        <v>481.02</v>
+        <v>11463.42</v>
       </c>
       <c r="I143" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="J143" t="n">
         <v>0.15</v>
@@ -6388,7 +6325,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
@@ -6397,30 +6334,30 @@
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E144" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F144" t="n">
-        <v>1743.4</v>
+        <v>52103.63</v>
       </c>
       <c r="G144" t="n">
         <v>1.71</v>
       </c>
       <c r="H144" t="n">
-        <v>1016.98</v>
+        <v>30393.79</v>
       </c>
       <c r="I144" t="n">
-        <v>2.49</v>
+        <v>2.06</v>
       </c>
       <c r="J144" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -6429,30 +6366,30 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E145" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F145" t="n">
-        <v>267.43</v>
+        <v>9049.71</v>
       </c>
       <c r="G145" t="n">
         <v>1.5</v>
       </c>
       <c r="H145" t="n">
-        <v>178.29</v>
+        <v>6033.14</v>
       </c>
       <c r="I145" t="n">
-        <v>2.59</v>
+        <v>2.13</v>
       </c>
       <c r="J145" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
@@ -6461,22 +6398,22 @@
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E146" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F146" t="n">
-        <v>166.82</v>
+        <v>4076.49</v>
       </c>
       <c r="G146" t="n">
         <v>1.5</v>
       </c>
       <c r="H146" t="n">
-        <v>111.22</v>
+        <v>2717.66</v>
       </c>
       <c r="I146" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
         <v>0.12</v>
@@ -6484,7 +6421,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B147" t="s">
         <v>19</v>
@@ -6493,30 +6430,30 @@
         <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E147" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F147" t="n">
-        <v>89.65</v>
+        <v>2664.3</v>
       </c>
       <c r="G147" t="n">
         <v>1.5</v>
       </c>
       <c r="H147" t="n">
-        <v>59.77</v>
+        <v>1776.2</v>
       </c>
       <c r="I147" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="J147" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -6525,30 +6462,30 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E148" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F148" t="n">
-        <v>1278.05</v>
+        <v>2217.92</v>
       </c>
       <c r="G148" t="n">
         <v>1.09</v>
       </c>
       <c r="H148" t="n">
-        <v>1171.55</v>
+        <v>2033.09</v>
       </c>
       <c r="I148" t="n">
-        <v>3.74</v>
+        <v>3.39</v>
       </c>
       <c r="J148" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
@@ -6557,19 +6494,19 @@
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="E149" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F149" t="n">
-        <v>2.49</v>
+        <v>2.68</v>
       </c>
       <c r="G149" t="n">
         <v>6</v>
       </c>
       <c r="H149" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="I149" t="n">
         <v>0.17</v>
@@ -6580,7 +6517,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
@@ -6589,13 +6526,13 @@
         <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E150" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F150" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G150" t="n">
         <v>12</v>
@@ -6612,7 +6549,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -6621,86 +6558,86 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="E151" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F151" t="n">
-        <v>39.83</v>
+        <v>11.09</v>
       </c>
       <c r="G151" t="n">
-        <v>1.71</v>
+        <v>6</v>
       </c>
       <c r="H151" t="n">
-        <v>23.24</v>
+        <v>1.85</v>
       </c>
       <c r="I151" t="n">
-        <v>2.06</v>
+        <v>0.16</v>
       </c>
       <c r="J151" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="E152" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F152" t="n">
-        <v>0.34</v>
+        <v>7.57</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
       </c>
       <c r="H152" t="n">
-        <v>0.06</v>
+        <v>1.26</v>
       </c>
       <c r="I152" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J152" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="E153" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="G153" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H153" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I153" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6708,7 +6645,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
@@ -6717,19 +6654,19 @@
         <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06</v>
+        <v>12.98</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="I154" t="n">
         <v>0.04</v>
@@ -6740,103 +6677,103 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="E155" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F155" t="n">
-        <v>1.21</v>
+        <v>549.82</v>
       </c>
       <c r="G155" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1</v>
+        <v>458.19</v>
       </c>
       <c r="I155" t="n">
-        <v>0.04</v>
+        <v>2.94</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E156" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="F156" t="n">
-        <v>385.19</v>
+        <v>8.29</v>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
-        <v>320.99</v>
+        <v>2.07</v>
       </c>
       <c r="I156" t="n">
-        <v>3.44</v>
+        <v>0.25</v>
       </c>
       <c r="J156" t="n">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="E157" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F157" t="n">
-        <v>7.7</v>
+        <v>3.72</v>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="I157" t="n">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B158" t="s">
         <v>19</v>
@@ -6845,374 +6782,374 @@
         <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>373</v>
+        <v>38</v>
       </c>
       <c r="E158" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="F158" t="n">
-        <v>3.45</v>
+        <v>0.55</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H158" t="n">
-        <v>1.73</v>
+        <v>0.05</v>
       </c>
       <c r="I158" t="n">
-        <v>0.88</v>
+        <v>0.04</v>
       </c>
       <c r="J158" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="E159" t="s">
-        <v>224</v>
+        <v>361</v>
       </c>
       <c r="F159" t="n">
-        <v>0.05</v>
+        <v>1197.02</v>
       </c>
       <c r="G159" t="n">
-        <v>12</v>
+        <v>1.71</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>698.26</v>
       </c>
       <c r="I159" t="n">
-        <v>0.04</v>
+        <v>1.82</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E160" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="F160" t="n">
-        <v>57.25</v>
+        <v>173.14</v>
       </c>
       <c r="G160" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
-        <v>33.4</v>
+        <v>115.43</v>
       </c>
       <c r="I160" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E161" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F161" t="n">
-        <v>16.08</v>
+        <v>1324.56</v>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>10.72</v>
+        <v>662.28</v>
       </c>
       <c r="I161" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="J161" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E162" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F162" t="n">
-        <v>46.49</v>
+        <v>18.8</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H162" t="n">
-        <v>23.25</v>
+        <v>4.7</v>
       </c>
       <c r="I162" t="n">
-        <v>1.95</v>
+        <v>0.41</v>
       </c>
       <c r="J162" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E163" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F163" t="n">
-        <v>1.55</v>
+        <v>4391.16</v>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>1.33</v>
       </c>
       <c r="H163" t="n">
-        <v>0.39</v>
+        <v>3293.37</v>
       </c>
       <c r="I163" t="n">
-        <v>0.45</v>
+        <v>2.31</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E164" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F164" t="n">
-        <v>220.5</v>
+        <v>1507.51</v>
       </c>
       <c r="G164" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>165.38</v>
+        <v>753.76</v>
       </c>
       <c r="I164" t="n">
-        <v>3.22</v>
+        <v>1.17</v>
       </c>
       <c r="J164" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E165" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F165" t="n">
-        <v>87.67</v>
+        <v>139.36</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
-        <v>43.83</v>
+        <v>46.45</v>
       </c>
       <c r="I165" t="n">
-        <v>1.37</v>
+        <v>0.72</v>
       </c>
       <c r="J165" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E166" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F166" t="n">
-        <v>7.4</v>
+        <v>7147.23</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="H166" t="n">
-        <v>2.47</v>
+        <v>5360.42</v>
       </c>
       <c r="I166" t="n">
-        <v>0.81</v>
+        <v>2.64</v>
       </c>
       <c r="J166" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E167" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F167" t="n">
-        <v>514.73</v>
+        <v>1408.75</v>
       </c>
       <c r="G167" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
-        <v>386.05</v>
+        <v>939.16</v>
       </c>
       <c r="I167" t="n">
-        <v>2.8</v>
+        <v>2.21</v>
       </c>
       <c r="J167" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>395</v>
+        <v>87</v>
       </c>
       <c r="E168" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F168" t="n">
-        <v>100.03</v>
+        <v>8728.84</v>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H168" t="n">
-        <v>66.69</v>
+        <v>2182.21</v>
       </c>
       <c r="I168" t="n">
-        <v>2.28</v>
+        <v>0.19</v>
       </c>
       <c r="J168" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>190</v>
+        <v>382</v>
       </c>
       <c r="E169" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F169" t="n">
-        <v>810.91</v>
+        <v>297922.34</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>202.73</v>
+        <v>297922.34</v>
       </c>
       <c r="I169" t="n">
-        <v>0.19</v>
+        <v>2.05</v>
       </c>
       <c r="J169" t="n">
         <v>0.02</v>
@@ -7220,287 +7157,287 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E170" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F170" t="n">
-        <v>25244.85</v>
+        <v>529.88</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H170" t="n">
-        <v>25244.85</v>
+        <v>132.47</v>
       </c>
       <c r="I170" t="n">
-        <v>1.96</v>
+        <v>0.37</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E171" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F171" t="n">
-        <v>49.23</v>
+        <v>19.77</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H171" t="n">
-        <v>12.31</v>
+        <v>3.29</v>
       </c>
       <c r="I171" t="n">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="E172" t="s">
-        <v>405</v>
+        <v>215</v>
       </c>
       <c r="F172" t="n">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="G172" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H172" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="I172" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="J172" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="E173" t="s">
-        <v>222</v>
+        <v>391</v>
       </c>
       <c r="F173" t="n">
-        <v>0.13</v>
+        <v>155.28</v>
       </c>
       <c r="G173" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.01</v>
+        <v>51.76</v>
       </c>
       <c r="I173" t="n">
-        <v>0.04</v>
+        <v>0.61</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E174" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F174" t="n">
-        <v>7.95</v>
+        <v>629.61</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
-        <v>2.65</v>
+        <v>157.4</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E175" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F175" t="n">
-        <v>29.25</v>
+        <v>354.16</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
       </c>
       <c r="H175" t="n">
-        <v>7.31</v>
+        <v>88.54</v>
       </c>
       <c r="I175" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="J175" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E176" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F176" t="n">
-        <v>17.55</v>
+        <v>23318.29</v>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>4.39</v>
+        <v>23318.29</v>
       </c>
       <c r="I176" t="n">
-        <v>0.32</v>
+        <v>5.69</v>
       </c>
       <c r="J176" t="n">
-        <v>0.37</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E177" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F177" t="n">
-        <v>847.54</v>
+        <v>6239.51</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="H177" t="n">
-        <v>847.54</v>
+        <v>5719.55</v>
       </c>
       <c r="I177" t="n">
-        <v>6.48</v>
+        <v>3.19</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E178" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F178" t="n">
-        <v>413.76</v>
+        <v>18255.24</v>
       </c>
       <c r="G178" t="n">
         <v>1.09</v>
       </c>
       <c r="H178" t="n">
-        <v>379.28</v>
+        <v>16733.97</v>
       </c>
       <c r="I178" t="n">
-        <v>3.39</v>
+        <v>3.67</v>
       </c>
       <c r="J178" t="n">
         <v>0.04</v>
@@ -7508,60 +7445,60 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="E179" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F179" t="n">
-        <v>1106.42</v>
+        <v>0.81</v>
       </c>
       <c r="G179" t="n">
-        <v>1.09</v>
+        <v>12</v>
       </c>
       <c r="H179" t="n">
-        <v>1014.22</v>
+        <v>0.07</v>
       </c>
       <c r="I179" t="n">
-        <v>4.04</v>
+        <v>0.04</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E180" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="F180" t="n">
-        <v>0.08</v>
+        <v>10.55</v>
       </c>
       <c r="G180" t="n">
         <v>12</v>
       </c>
       <c r="H180" t="n">
-        <v>0.01</v>
+        <v>0.88</v>
       </c>
       <c r="I180" t="n">
         <v>0.04</v>
@@ -7572,95 +7509,95 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E181" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F181" t="n">
-        <v>0.98</v>
+        <v>13.33</v>
       </c>
       <c r="G181" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H181" t="n">
-        <v>0.08</v>
+        <v>2.22</v>
       </c>
       <c r="I181" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J181" t="n">
         <v>0.04</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E182" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F182" t="n">
-        <v>1.24</v>
+        <v>249.98</v>
       </c>
       <c r="G182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
-        <v>0.21</v>
+        <v>83.33</v>
       </c>
       <c r="I182" t="n">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E183" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="F183" t="n">
-        <v>18.83</v>
+        <v>116.9</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
       </c>
       <c r="H183" t="n">
-        <v>6.28</v>
+        <v>38.97</v>
       </c>
       <c r="I183" t="n">
-        <v>0.69</v>
+        <v>0.53</v>
       </c>
       <c r="J183" t="n">
         <v>0.11</v>
@@ -7668,71 +7605,71 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E184" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F184" t="n">
-        <v>10.13</v>
+        <v>460.96</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
       </c>
       <c r="H184" t="n">
-        <v>3.38</v>
+        <v>153.65</v>
       </c>
       <c r="I184" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="J184" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E185" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F185" t="n">
-        <v>20.78</v>
+        <v>247.91</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H185" t="n">
-        <v>6.93</v>
+        <v>41.32</v>
       </c>
       <c r="I185" t="n">
-        <v>0.94</v>
+        <v>0.15</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
@@ -7741,30 +7678,30 @@
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="E186" t="s">
-        <v>148</v>
+        <v>419</v>
       </c>
       <c r="F186" t="n">
-        <v>0.23</v>
+        <v>6076.61</v>
       </c>
       <c r="G186" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="H186" t="n">
-        <v>0.02</v>
+        <v>2531.92</v>
       </c>
       <c r="I186" t="n">
-        <v>0.04</v>
+        <v>0.64</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B187" t="s">
         <v>19</v>
@@ -7773,30 +7710,30 @@
         <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="E187" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F187" t="n">
-        <v>0.39</v>
+        <v>5345.32</v>
       </c>
       <c r="G187" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03</v>
+        <v>2227.22</v>
       </c>
       <c r="I187" t="n">
-        <v>0.04</v>
+        <v>0.74</v>
       </c>
       <c r="J187" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -7805,30 +7742,30 @@
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="E188" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F188" t="n">
-        <v>21.16</v>
+        <v>35483.86</v>
       </c>
       <c r="G188" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
-        <v>3.53</v>
+        <v>29569.89</v>
       </c>
       <c r="I188" t="n">
-        <v>0.2</v>
+        <v>2.88</v>
       </c>
       <c r="J188" t="n">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
@@ -7837,30 +7774,30 @@
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="E189" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F189" t="n">
-        <v>141.13</v>
+        <v>10223.92</v>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>1.09</v>
       </c>
       <c r="H189" t="n">
-        <v>58.8</v>
+        <v>9371.92</v>
       </c>
       <c r="I189" t="n">
-        <v>0.33</v>
+        <v>4.67</v>
       </c>
       <c r="J189" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B190" t="s">
         <v>19</v>
@@ -7869,30 +7806,30 @@
         <v>20</v>
       </c>
       <c r="D190" t="s">
-        <v>440</v>
+        <v>38</v>
       </c>
       <c r="E190" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F190" t="n">
-        <v>304.87</v>
+        <v>0.42</v>
       </c>
       <c r="G190" t="n">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="H190" t="n">
-        <v>127.03</v>
+        <v>0.04</v>
       </c>
       <c r="I190" t="n">
-        <v>0.68</v>
+        <v>0.04</v>
       </c>
       <c r="J190" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -7901,30 +7838,30 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E191" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F191" t="n">
-        <v>2174.31</v>
+        <v>494.53</v>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H191" t="n">
-        <v>1811.93</v>
+        <v>206.05</v>
       </c>
       <c r="I191" t="n">
-        <v>3.09</v>
+        <v>0.93</v>
       </c>
       <c r="J191" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
@@ -7933,30 +7870,30 @@
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E192" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F192" t="n">
-        <v>869.97</v>
+        <v>659.01</v>
       </c>
       <c r="G192" t="n">
-        <v>1.09</v>
+        <v>1.71</v>
       </c>
       <c r="H192" t="n">
-        <v>797.47</v>
+        <v>384.42</v>
       </c>
       <c r="I192" t="n">
-        <v>4.85</v>
+        <v>1.65</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B193" t="s">
         <v>19</v>
@@ -7965,30 +7902,30 @@
         <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="E193" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04</v>
+        <v>19933.12</v>
       </c>
       <c r="G193" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>19933.12</v>
       </c>
       <c r="I193" t="n">
-        <v>0.04</v>
+        <v>5.03</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -7997,30 +7934,30 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="E194" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="F194" t="n">
-        <v>45.94</v>
+        <v>478.02</v>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
-        <v>19.14</v>
+        <v>159.34</v>
       </c>
       <c r="I194" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="J194" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
@@ -8029,30 +7966,30 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E195" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="F195" t="n">
-        <v>57.26</v>
+        <v>148.35</v>
       </c>
       <c r="G195" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
-        <v>33.4</v>
+        <v>74.18</v>
       </c>
       <c r="I195" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="J195" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B196" t="s">
         <v>19</v>
@@ -8061,30 +7998,30 @@
         <v>20</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E196" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F196" t="n">
-        <v>1825.79</v>
+        <v>31841.86</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>1825.79</v>
+        <v>31841.86</v>
       </c>
       <c r="I196" t="n">
-        <v>5.06</v>
+        <v>3.97</v>
       </c>
       <c r="J196" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -8093,30 +8030,30 @@
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E197" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F197" t="n">
-        <v>18.76</v>
+        <v>6726.4</v>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
-        <v>6.25</v>
+        <v>3363.2</v>
       </c>
       <c r="I197" t="n">
-        <v>0.68</v>
+        <v>1.72</v>
       </c>
       <c r="J197" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
@@ -8125,30 +8062,30 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E198" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F198" t="n">
-        <v>13.08</v>
+        <v>4.8</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>6.54</v>
+        <v>0.8</v>
       </c>
       <c r="I198" t="n">
-        <v>1.44</v>
+        <v>0.16</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B199" t="s">
         <v>19</v>
@@ -8157,30 +8094,30 @@
         <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="E199" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F199" t="n">
-        <v>992.66</v>
+        <v>0.75</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H199" t="n">
-        <v>992.66</v>
+        <v>0.06</v>
       </c>
       <c r="I199" t="n">
-        <v>5.67</v>
+        <v>0.04</v>
       </c>
       <c r="J199" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -8189,30 +8126,30 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E200" t="s">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="F200" t="n">
-        <v>278.95</v>
+        <v>57.3</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="H200" t="n">
-        <v>139.48</v>
+        <v>42.98</v>
       </c>
       <c r="I200" t="n">
-        <v>2.32</v>
+        <v>1.4</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
@@ -8221,30 +8158,30 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E201" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F201" t="n">
-        <v>0.45</v>
+        <v>247.62</v>
       </c>
       <c r="G201" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
-        <v>0.07</v>
+        <v>165.08</v>
       </c>
       <c r="I201" t="n">
-        <v>0.16</v>
+        <v>1.88</v>
       </c>
       <c r="J201" t="n">
-        <v>0.78</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B202" t="s">
         <v>19</v>
@@ -8253,30 +8190,30 @@
         <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="E202" t="s">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="F202" t="n">
-        <v>0.07</v>
+        <v>132.38</v>
       </c>
       <c r="G202" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
-        <v>0.01</v>
+        <v>88.25</v>
       </c>
       <c r="I202" t="n">
-        <v>0.04</v>
+        <v>1.84</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -8285,30 +8222,30 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="E203" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F203" t="n">
-        <v>3.7</v>
+        <v>771.32</v>
       </c>
       <c r="G203" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="H203" t="n">
-        <v>2.77</v>
+        <v>449.94</v>
       </c>
       <c r="I203" t="n">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="J203" t="n">
-        <v>-0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -8317,30 +8254,30 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="E204" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="F204" t="n">
-        <v>12</v>
+        <v>7.06</v>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H204" t="n">
-        <v>8</v>
+        <v>2.35</v>
       </c>
       <c r="I204" t="n">
-        <v>1.8</v>
+        <v>0.59</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B205" t="s">
         <v>19</v>
@@ -8349,248 +8286,152 @@
         <v>20</v>
       </c>
       <c r="D205" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E205" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F205" t="n">
-        <v>10.44</v>
+        <v>101.56</v>
       </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
-        <v>6.96</v>
+        <v>42.32</v>
       </c>
       <c r="I205" t="n">
-        <v>2.16</v>
+        <v>1.11</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E206" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="F206" t="n">
-        <v>36.99</v>
+        <v>92633.18</v>
       </c>
       <c r="G206" t="n">
-        <v>1.71</v>
+        <v>0.71</v>
       </c>
       <c r="H206" t="n">
-        <v>21.58</v>
+        <v>131230.34</v>
       </c>
       <c r="I206" t="n">
-        <v>2.32</v>
+        <v>8.29</v>
       </c>
       <c r="J206" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E207" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F207" t="n">
-        <v>0.57</v>
+        <v>37431.63</v>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
-        <v>0.19</v>
+        <v>31193.03</v>
       </c>
       <c r="I207" t="n">
-        <v>0.68</v>
+        <v>3.61</v>
       </c>
       <c r="J207" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>479</v>
+        <v>38</v>
       </c>
       <c r="E208" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F208" t="n">
-        <v>7.52</v>
+        <v>0.97</v>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="H208" t="n">
-        <v>3.14</v>
+        <v>0.08</v>
       </c>
       <c r="I208" t="n">
-        <v>1.18</v>
+        <v>0.04</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>482</v>
+        <v>38</v>
       </c>
       <c r="E209" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="F209" t="n">
-        <v>8443.85</v>
+        <v>0.77</v>
       </c>
       <c r="G209" t="n">
-        <v>0.71</v>
+        <v>12</v>
       </c>
       <c r="H209" t="n">
-        <v>11962.12</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>8.25</v>
+        <v>0.04</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>481</v>
-      </c>
-      <c r="B210" t="s">
-        <v>19</v>
-      </c>
-      <c r="C210" t="s">
-        <v>20</v>
-      </c>
-      <c r="D210" t="s">
-        <v>484</v>
-      </c>
-      <c r="E210" t="s">
-        <v>485</v>
-      </c>
-      <c r="F210" t="n">
-        <v>3477.4</v>
-      </c>
-      <c r="G210" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2897.83</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>486</v>
-      </c>
-      <c r="B211" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" t="s">
-        <v>83</v>
-      </c>
-      <c r="E211" t="s">
-        <v>487</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G211" t="n">
-        <v>12</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>488</v>
-      </c>
-      <c r="B212" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" t="s">
-        <v>83</v>
-      </c>
-      <c r="E212" t="s">
-        <v>467</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="G212" t="n">
-        <v>12</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J212" t="n">
         <v>0</v>
       </c>
     </row>
